--- a/data/processed/2016_5_year_table.xlsx
+++ b/data/processed/2016_5_year_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marwankalo/Documents/Data_Science/Project_Mod_1/opportunity_youth/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A4A6F5-8B24-884C-AF39-8E274B3AAFA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77D3DCB-267C-D746-99F7-308A3BE9D9E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{30D52B17-8D81-104C-8421-78EB1AD5ED83}"/>
   </bookViews>
@@ -667,7 +667,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6FBFF9-F2B5-DE4E-924D-8278B41B4DDB}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
